--- a/src/Room.xlsx
+++ b/src/Room.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60D0D9C9-3F8B-40AC-A80D-3F88BEBC9469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF016AB-9F01-421E-BFE6-8175761D1DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>NrCam</t>
   </si>
@@ -55,7 +55,7 @@
     <t>#4124</t>
   </si>
   <si>
-    <t>&amp;5325</t>
+    <t>feasgd</t>
   </si>
   <si>
     <t>XL</t>
@@ -149,12 +149,16 @@
   </si>
   <si>
     <t>&amp;5339</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -523,7 +527,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -571,7 +575,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/src/Room.xlsx
+++ b/src/Room.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
   <si>
     <t>NrCam</t>
   </si>

--- a/src/Room.xlsx
+++ b/src/Room.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF016AB-9F01-421E-BFE6-8175761D1DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programare pe obiecte\Project3\src\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EDA774-5B74-40F6-BB44-189D0034A855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="4530" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>NrCam</t>
   </si>
@@ -55,9 +60,6 @@
     <t>#4124</t>
   </si>
   <si>
-    <t>feasgd</t>
-  </si>
-  <si>
     <t>XL</t>
   </si>
   <si>
@@ -79,9 +81,6 @@
     <t>#4127</t>
   </si>
   <si>
-    <t>&amp;5328</t>
-  </si>
-  <si>
     <t>#4128</t>
   </si>
   <si>
@@ -100,9 +99,6 @@
     <t>#4130</t>
   </si>
   <si>
-    <t>&amp;5331</t>
-  </si>
-  <si>
     <t>#4131</t>
   </si>
   <si>
@@ -149,6 +145,12 @@
   </si>
   <si>
     <t>&amp;5339</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>x.ReadCellData(i, 6, Room.fisR()</t>
   </si>
   <si>
     <t>yes</t>
@@ -159,13 +161,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,13 +211,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -228,7 +239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -524,15 +535,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -575,10 +586,10 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -589,19 +600,19 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4">
         <v>350</v>
       </c>
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -612,19 +623,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4">
         <v>150</v>
       </c>
       <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -635,19 +646,19 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
         <v>450</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -658,19 +669,19 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5">
         <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -687,13 +698,13 @@
         <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -704,19 +715,19 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5">
         <v>300</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -727,19 +738,19 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="5">
         <v>300</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -750,19 +761,19 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5">
         <v>300</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -773,19 +784,19 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5">
         <v>150</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -796,19 +807,19 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5">
         <v>150</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -819,19 +830,19 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="5">
         <v>400</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -848,13 +859,13 @@
         <v>250</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -865,19 +876,19 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5">
         <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -888,19 +899,23 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5">
         <v>150</v>
       </c>
       <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="G16" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/Room.xlsx
+++ b/src/Room.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>NrCam</t>
   </si>

--- a/src/Room.xlsx
+++ b/src/Room.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>NrCam</t>
   </si>

--- a/src/Room.xlsx
+++ b/src/Room.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>NrCam</t>
   </si>
